--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78239.75937272437</v>
+        <v>69996.21027677142</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29945736.18389927</v>
+        <v>29945736.18389926</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10919598.88561318</v>
+        <v>10919598.88561319</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4224248.493609453</v>
+        <v>4224248.493609454</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>32.91370339059973</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>190.1621800425945</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>126.5711111732448</v>
       </c>
       <c r="D13" t="n">
-        <v>131.5136662093118</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>125.5898288290616</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>112.5885169387727</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T15" t="n">
         <v>136.7309641056443</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>54.24885151651299</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>255.4954061262019</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>48.67910626418632</v>
       </c>
       <c r="E17" t="n">
-        <v>81.44375389153447</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458684</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T18" t="n">
         <v>136.7309641056443</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>166.9958133522863</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>14.51368427982217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>67.52173953264175</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458684</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>255.8701873163967</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,7 +2247,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>159.4412193715571</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>210.2978487621555</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2329,13 +2329,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>387.6958601344803</v>
       </c>
       <c r="G23" t="n">
         <v>398.0298839804087</v>
       </c>
       <c r="H23" t="n">
-        <v>76.3662035076871</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U23" t="n">
         <v>255.5900972850689</v>
@@ -2414,7 +2414,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H24" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T24" t="n">
         <v>135.5747030934602</v>
@@ -2487,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.5780456014529</v>
@@ -2496,7 +2496,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I25" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U25" t="n">
-        <v>179.0554794141584</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>59.38746092120746</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>150.1087447877971</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>196.1841807403565</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H27" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T27" t="n">
         <v>135.5747030934602</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>163.5780456014529</v>
       </c>
       <c r="H28" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.4175931844434</v>
+        <v>199.5964278691152</v>
       </c>
       <c r="U28" t="n">
         <v>277.3271665015756</v>
@@ -2809,7 +2809,7 @@
         <v>398.0298839804087</v>
       </c>
       <c r="H29" t="n">
-        <v>143.6837182076248</v>
+        <v>145.6800147710215</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2888,7 +2888,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H30" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T30" t="n">
         <v>135.5747030934602</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>160.6686120320211</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5780456014529</v>
+        <v>72.45766045751886</v>
       </c>
       <c r="H31" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I31" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T31" t="n">
         <v>236.5633491017144</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>98.29888586960185</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.0298839804087</v>
+        <v>391.6971971925695</v>
       </c>
       <c r="H32" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3125,7 +3125,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H33" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T33" t="n">
         <v>135.5747030934602</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>123.7486057246759</v>
       </c>
       <c r="I34" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.1762352505872</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.5633491017144</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>120.0236823181806</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>290.1884165718963</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H35" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H36" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T36" t="n">
         <v>135.5747030934602</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>112.6352867956286</v>
       </c>
       <c r="G37" t="n">
         <v>163.5780456014529</v>
@@ -3444,7 +3444,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I37" t="n">
-        <v>59.60102641928595</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>133.5609454684091</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>380.8698186902492</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H38" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T38" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3599,7 +3599,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H39" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T39" t="n">
         <v>135.5747030934602</v>
@@ -3666,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>123.8474467166931</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S40" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.5633491017144</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>9.757535468812661</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>42.19322430752077</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>327.3133252853951</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.0298839804087</v>
       </c>
       <c r="H41" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H42" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T42" t="n">
         <v>135.5747030934602</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>123.8474467166931</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.20633367524529</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.7022337443948</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>332.9430236469159</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H44" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.6919815555191</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V44" t="n">
-        <v>46.07174051474426</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.90093071155884</v>
       </c>
       <c r="H45" t="n">
-        <v>41.13403413279141</v>
+        <v>41.13403413279142</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.99300189413503</v>
+        <v>57.99300189413505</v>
       </c>
       <c r="T45" t="n">
         <v>135.5747030934602</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5780456014529</v>
+        <v>11.84164092575737</v>
       </c>
       <c r="H46" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
-        <v>25.22112523441729</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952046827</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S46" t="n">
         <v>150.7214115632189</v>
@@ -4194,7 +4194,7 @@
         <v>277.3271665015756</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.27616607839228</v>
+        <v>1343.916073597144</v>
       </c>
       <c r="C11" t="n">
-        <v>36.27616607839228</v>
+        <v>1343.916073597144</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839228</v>
+        <v>920.6234527821443</v>
       </c>
       <c r="E11" t="n">
-        <v>36.27616607839228</v>
+        <v>494.6465129300019</v>
       </c>
       <c r="F11" t="n">
-        <v>36.27616607839228</v>
+        <v>69.52233111940211</v>
       </c>
       <c r="G11" t="n">
         <v>36.27616607839228</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149082</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250301</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1621.725293775579</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V11" t="n">
-        <v>1264.235878901828</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W11" t="n">
-        <v>867.8445292021752</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X11" t="n">
-        <v>456.1245303699224</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y11" t="n">
-        <v>456.1245303699224</v>
+        <v>1343.916073597144</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432375</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607423</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
         <v>372.0909253760273</v>
@@ -5108,7 +5108,7 @@
         <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318687</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5117,28 +5117,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>254.1641319694781</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>379.9327575407182</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>556.5716083713671</v>
+        <v>911.0584556169659</v>
       </c>
       <c r="M12" t="n">
-        <v>765.8463068523822</v>
+        <v>1120.333154097981</v>
       </c>
       <c r="N12" t="n">
-        <v>983.0012886846985</v>
+        <v>1337.488135930297</v>
       </c>
       <c r="O12" t="n">
-        <v>1178.044955672185</v>
+        <v>1532.531802917784</v>
       </c>
       <c r="P12" t="n">
-        <v>1331.443070518538</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q12" t="n">
         <v>1780.360625738642</v>
@@ -5153,7 +5153,7 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
         <v>1222.055408810128</v>
@@ -5162,10 +5162,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100078</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633002</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.0908162795892</v>
+        <v>164.1257733240942</v>
       </c>
       <c r="C13" t="n">
-        <v>169.1182531585052</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D13" t="n">
         <v>36.27616607839228</v>
@@ -5205,16 +5205,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.25223946253</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.831680612252</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O13" t="n">
-        <v>1551.749235832356</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P13" t="n">
         <v>1622.490343973492</v>
@@ -5223,28 +5223,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1802.007452933977</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T13" t="n">
-        <v>1562.016618765574</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U13" t="n">
-        <v>1281.874917248079</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V13" t="n">
-        <v>1000.163449856108</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W13" t="n">
-        <v>1000.163449856108</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X13" t="n">
-        <v>757.5995533019128</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.2567849916549</v>
+        <v>354.2917420361598</v>
       </c>
     </row>
     <row r="14">
@@ -5257,37 +5257,37 @@
         <v>463.1768960650922</v>
       </c>
       <c r="C14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J14" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5296,7 +5296,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
         <v>1740.92751718922</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1700.082529233985</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W14" t="n">
-        <v>1700.082529233985</v>
+        <v>995.37257906885</v>
       </c>
       <c r="X14" t="n">
-        <v>1288.362530401732</v>
+        <v>995.37257906885</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.0252603566223</v>
+        <v>590.0353090237403</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>254.1641319694782</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>379.9327575407182</v>
+        <v>628.9641045014115</v>
       </c>
       <c r="L15" t="n">
-        <v>556.5716083713671</v>
+        <v>805.6029553320604</v>
       </c>
       <c r="M15" t="n">
-        <v>765.8463068523821</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N15" t="n">
-        <v>983.0012886846982</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O15" t="n">
-        <v>1178.044955672185</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P15" t="n">
-        <v>1331.443070518538</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919614</v>
@@ -5387,22 +5387,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.137999643809</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C16" t="n">
-        <v>916.1654365227246</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D16" t="n">
-        <v>752.8486636494953</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E16" t="n">
-        <v>586.6404578023488</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F16" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>309.0520751284041</v>
+        <v>606.7836421246718</v>
       </c>
       <c r="M16" t="n">
-        <v>757.9696303485084</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N16" t="n">
-        <v>1206.887185568613</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
-        <v>1655.804740788717</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
-        <v>1726.545848929853</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1802.007452933977</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T16" t="n">
-        <v>1747.210633220327</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U16" t="n">
-        <v>1747.210633220327</v>
+        <v>1125.397530580239</v>
       </c>
       <c r="V16" t="n">
-        <v>1747.210633220327</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="W16" t="n">
-        <v>1747.210633220327</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X16" t="n">
-        <v>1504.646736666132</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.303968355874</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.5425841506493</v>
+        <v>512.3477104733612</v>
       </c>
       <c r="C17" t="n">
-        <v>118.5425841506493</v>
+        <v>85.44698048666129</v>
       </c>
       <c r="D17" t="n">
-        <v>118.5425841506493</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103475</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R17" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1535.975759145522</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U17" t="n">
-        <v>1277.760618769163</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V17" t="n">
-        <v>920.2712038954121</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W17" t="n">
-        <v>523.879854195759</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X17" t="n">
-        <v>523.879854195759</v>
+        <v>1337.533344810001</v>
       </c>
       <c r="Y17" t="n">
-        <v>118.5425841506493</v>
+        <v>932.1960747648913</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968657</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>433.5238427951066</v>
+        <v>148.7086316845717</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663466</v>
+        <v>274.4772572558117</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969954</v>
+        <v>451.1161080864607</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780104</v>
+        <v>660.3908065674757</v>
       </c>
       <c r="N18" t="n">
-        <v>1162.360999510327</v>
+        <v>877.5457883997919</v>
       </c>
       <c r="O18" t="n">
-        <v>1357.404666497813</v>
+        <v>1072.589455387279</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.802781344166</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.3094892506268</v>
+        <v>380.1105034249158</v>
       </c>
       <c r="C19" t="n">
-        <v>779.3369261295428</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="D19" t="n">
-        <v>616.0201532563135</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E19" t="n">
-        <v>449.811947409167</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F19" t="n">
-        <v>277.9501731837275</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>665.4738072482862</v>
+        <v>595.0234223693769</v>
       </c>
       <c r="M19" t="n">
-        <v>763.5271548259054</v>
+        <v>693.0767699469961</v>
       </c>
       <c r="N19" t="n">
-        <v>860.5258609178534</v>
+        <v>790.0754760389441</v>
       </c>
       <c r="O19" t="n">
-        <v>1309.443416137958</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P19" t="n">
-        <v>1692.940728852401</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q19" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1813.808303919613</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251773</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T19" t="n">
-        <v>1657.330917251773</v>
+        <v>1633.324813184193</v>
       </c>
       <c r="U19" t="n">
-        <v>1657.330917251773</v>
+        <v>1353.183111666698</v>
       </c>
       <c r="V19" t="n">
-        <v>1657.330917251773</v>
+        <v>1071.471644274726</v>
       </c>
       <c r="W19" t="n">
-        <v>1382.478513424286</v>
+        <v>796.6192404472395</v>
       </c>
       <c r="X19" t="n">
-        <v>1367.81822627295</v>
+        <v>796.6192404472395</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.475457962692</v>
+        <v>570.2764721369815</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>316.2519252281124</v>
+        <v>932.1960747648913</v>
       </c>
       <c r="C20" t="n">
-        <v>316.2519252281124</v>
+        <v>932.1960747648913</v>
       </c>
       <c r="D20" t="n">
-        <v>316.2519252281124</v>
+        <v>932.1960747648913</v>
       </c>
       <c r="E20" t="n">
-        <v>316.2519252281124</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F20" t="n">
-        <v>316.2519252281124</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281124</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
         <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
         <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103472</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.927517189219</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R20" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V20" t="n">
-        <v>1391.763928768502</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W20" t="n">
-        <v>1133.309194105475</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X20" t="n">
-        <v>721.5891952732221</v>
+        <v>1337.533344810001</v>
       </c>
       <c r="Y20" t="n">
-        <v>316.2519252281124</v>
+        <v>932.1960747648913</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>51.80960935527472</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>410.0665369506947</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K21" t="n">
-        <v>535.8351625219348</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L21" t="n">
-        <v>712.4740133525836</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M21" t="n">
-        <v>921.7487118335986</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.903693665915</v>
+        <v>870.2585070407358</v>
       </c>
       <c r="O21" t="n">
-        <v>1333.947360653401</v>
+        <v>1065.302174028222</v>
       </c>
       <c r="P21" t="n">
-        <v>1487.345475499754</v>
+        <v>1514.219729248327</v>
       </c>
       <c r="Q21" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R21" t="n">
         <v>1813.808303919613</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>780.679745110333</v>
+        <v>785.8362142185329</v>
       </c>
       <c r="C22" t="n">
-        <v>608.707181989249</v>
+        <v>613.8636510974488</v>
       </c>
       <c r="D22" t="n">
-        <v>445.3904091160197</v>
+        <v>450.5468782242195</v>
       </c>
       <c r="E22" t="n">
         <v>284.3386723770731</v>
@@ -5907,55 +5907,55 @@
         <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839226</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583893</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>356.3700675499415</v>
+        <v>605.7290006390006</v>
       </c>
       <c r="M22" t="n">
-        <v>805.2876227700457</v>
+        <v>703.7823482166198</v>
       </c>
       <c r="N22" t="n">
-        <v>1254.20517799015</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210254</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.86384135139</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q22" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933976</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1802.007452933976</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T22" t="n">
-        <v>1562.016618765573</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="U22" t="n">
-        <v>1281.874917248078</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="V22" t="n">
-        <v>1281.874917248078</v>
+        <v>1444.908847795051</v>
       </c>
       <c r="W22" t="n">
-        <v>1007.022513420591</v>
+        <v>1444.908847795051</v>
       </c>
       <c r="X22" t="n">
-        <v>1007.022513420591</v>
+        <v>1202.344951240857</v>
       </c>
       <c r="Y22" t="n">
-        <v>780.679745110333</v>
+        <v>976.0021829305986</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2230.250893809106</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="C23" t="n">
-        <v>1803.350163822406</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="D23" t="n">
-        <v>1380.057543007406</v>
+        <v>1543.837252104807</v>
       </c>
       <c r="E23" t="n">
-        <v>954.0806031552639</v>
+        <v>1117.860312252665</v>
       </c>
       <c r="F23" t="n">
-        <v>528.9564213446641</v>
+        <v>726.2483323188462</v>
       </c>
       <c r="G23" t="n">
-        <v>126.9060334856654</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H23" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I23" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3013860486622</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K23" t="n">
-        <v>513.2289698376788</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L23" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M23" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N23" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O23" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.365373791549</v>
       </c>
       <c r="P23" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q23" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S23" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465215</v>
       </c>
       <c r="T23" t="n">
-        <v>2488.422709248569</v>
+        <v>2225.30168835927</v>
       </c>
       <c r="U23" t="n">
-        <v>2230.250893809106</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="V23" t="n">
-        <v>2230.250893809106</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="W23" t="n">
-        <v>2230.250893809106</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="X23" t="n">
-        <v>2230.250893809106</v>
+        <v>1967.129872919807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2230.250893809106</v>
+        <v>1967.129872919807</v>
       </c>
     </row>
     <row r="24">
@@ -6050,40 +6050,40 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D24" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E24" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F24" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G24" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H24" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="I24" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432212</v>
       </c>
       <c r="J24" t="n">
-        <v>183.4593521567748</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K24" t="n">
-        <v>355.0869125144397</v>
+        <v>339.6930667592873</v>
       </c>
       <c r="L24" t="n">
-        <v>593.3887605094956</v>
+        <v>577.994914754343</v>
       </c>
       <c r="M24" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705418</v>
       </c>
       <c r="N24" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631353</v>
       </c>
       <c r="O24" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P24" t="n">
         <v>1635.880495210175</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.922083832231</v>
+        <v>920.0603096067912</v>
       </c>
       <c r="C25" t="n">
-        <v>919.9495207111468</v>
+        <v>748.0877464857072</v>
       </c>
       <c r="D25" t="n">
-        <v>756.6327478379175</v>
+        <v>584.7709736124779</v>
       </c>
       <c r="E25" t="n">
-        <v>590.424541990771</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="F25" t="n">
         <v>418.5627677653314</v>
@@ -6144,55 +6144,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.76845418497139</v>
+        <v>49.76845418497136</v>
       </c>
       <c r="J25" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K25" t="n">
         <v>521.826161564851</v>
       </c>
       <c r="L25" t="n">
-        <v>649.7197290546715</v>
+        <v>1026.108622645836</v>
       </c>
       <c r="M25" t="n">
-        <v>1198.630515423952</v>
+        <v>1161.483928552295</v>
       </c>
       <c r="N25" t="n">
-        <v>1367.225758175251</v>
+        <v>1367.22575817525</v>
       </c>
       <c r="O25" t="n">
-        <v>1864.874391771335</v>
+        <v>1864.874391771334</v>
       </c>
       <c r="P25" t="n">
-        <v>2277.167815000589</v>
+        <v>2277.167815000588</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R25" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S25" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="T25" t="n">
-        <v>2488.422709248569</v>
+        <v>2249.469831368048</v>
       </c>
       <c r="U25" t="n">
-        <v>2307.558588628207</v>
+        <v>1969.341380356356</v>
       </c>
       <c r="V25" t="n">
-        <v>2025.847121236236</v>
+        <v>1687.629912964385</v>
       </c>
       <c r="W25" t="n">
-        <v>1750.994717408749</v>
+        <v>1412.777509136898</v>
       </c>
       <c r="X25" t="n">
-        <v>1508.430820854554</v>
+        <v>1170.213612582703</v>
       </c>
       <c r="Y25" t="n">
-        <v>1282.088052544296</v>
+        <v>1110.226278318857</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1475.787191397862</v>
+        <v>1302.01219284567</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.787191397862</v>
+        <v>875.1114628589698</v>
       </c>
       <c r="D26" t="n">
-        <v>1052.494570582862</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="E26" t="n">
-        <v>626.5176307307198</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F26" t="n">
-        <v>201.39344892012</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G26" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="H26" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I26" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486619</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376785</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L26" t="n">
-        <v>829.2827739385796</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M26" t="n">
         <v>1186.099811633997</v>
@@ -6244,34 +6244,34 @@
         <v>1890.36537379155</v>
       </c>
       <c r="P26" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q26" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R26" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S26" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="T26" t="n">
-        <v>2277.515811142625</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="U26" t="n">
-        <v>2277.515811142625</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="V26" t="n">
-        <v>2277.515811142625</v>
+        <v>1920.026396268873</v>
       </c>
       <c r="W26" t="n">
-        <v>1881.124461442972</v>
+        <v>1721.8605571372</v>
       </c>
       <c r="X26" t="n">
-        <v>1881.124461442972</v>
+        <v>1721.8605571372</v>
       </c>
       <c r="Y26" t="n">
-        <v>1475.787191397862</v>
+        <v>1721.8605571372</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D27" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E27" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F27" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G27" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H27" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I27" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K27" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L27" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M27" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N27" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O27" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P27" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q27" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R27" t="n">
         <v>1817.643160879484</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>753.8521037596447</v>
+        <v>791.0452000377528</v>
       </c>
       <c r="C28" t="n">
-        <v>581.8795406385607</v>
+        <v>619.0726369166688</v>
       </c>
       <c r="D28" t="n">
-        <v>418.5627677653314</v>
+        <v>455.7558640434395</v>
       </c>
       <c r="E28" t="n">
-        <v>418.5627677653314</v>
+        <v>455.7558640434395</v>
       </c>
       <c r="F28" t="n">
-        <v>418.5627677653314</v>
+        <v>283.8940898179999</v>
       </c>
       <c r="G28" t="n">
-        <v>253.3324186729547</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="H28" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I28" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="J28" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K28" t="n">
-        <v>521.8261615648511</v>
+        <v>246.6960581639044</v>
       </c>
       <c r="L28" t="n">
-        <v>649.7197290546716</v>
+        <v>750.9785192448899</v>
       </c>
       <c r="M28" t="n">
-        <v>835.7596036629649</v>
+        <v>1299.889305614171</v>
       </c>
       <c r="N28" t="n">
-        <v>1367.225758175251</v>
+        <v>1831.355460126457</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.874391771335</v>
+        <v>2329.004093722541</v>
       </c>
       <c r="P28" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378487</v>
       </c>
       <c r="Q28" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R28" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S28" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="T28" t="n">
-        <v>2249.617059567314</v>
+        <v>2286.810155845422</v>
       </c>
       <c r="U28" t="n">
-        <v>1969.488608555621</v>
+        <v>2006.681704833729</v>
       </c>
       <c r="V28" t="n">
-        <v>1687.77714116365</v>
+        <v>1724.970237441758</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.924737336163</v>
+        <v>1450.117833614271</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.360840781968</v>
+        <v>1207.553937060076</v>
       </c>
       <c r="Y28" t="n">
-        <v>944.0180724717104</v>
+        <v>981.2111687498184</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>596.9539109405608</v>
+        <v>598.970372115709</v>
       </c>
       <c r="C29" t="n">
-        <v>596.9539109405608</v>
+        <v>598.970372115709</v>
       </c>
       <c r="D29" t="n">
-        <v>596.9539109405608</v>
+        <v>598.970372115709</v>
       </c>
       <c r="E29" t="n">
-        <v>596.9539109405608</v>
+        <v>598.970372115709</v>
       </c>
       <c r="F29" t="n">
-        <v>596.9539109405608</v>
+        <v>598.970372115709</v>
       </c>
       <c r="G29" t="n">
-        <v>194.9035230815621</v>
+        <v>196.9199842567103</v>
       </c>
       <c r="H29" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I29" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147721</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486622</v>
       </c>
       <c r="K29" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376787</v>
       </c>
       <c r="L29" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385796</v>
       </c>
       <c r="M29" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N29" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O29" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P29" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q29" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R29" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S29" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T29" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U29" t="n">
-        <v>2230.250893809106</v>
+        <v>2178.036771025752</v>
       </c>
       <c r="V29" t="n">
-        <v>2230.250893809106</v>
+        <v>1820.547356152002</v>
       </c>
       <c r="W29" t="n">
-        <v>1833.859544109453</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="X29" t="n">
-        <v>1422.139545277201</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="Y29" t="n">
-        <v>1016.802275232091</v>
+        <v>1018.818736407239</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>486.3349290818755</v>
       </c>
       <c r="D30" t="n">
-        <v>382.4949705971606</v>
+        <v>382.4949705971605</v>
       </c>
       <c r="E30" t="n">
         <v>277.7930368700978</v>
       </c>
       <c r="F30" t="n">
-        <v>184.147206553002</v>
+        <v>184.1472065530019</v>
       </c>
       <c r="G30" t="n">
-        <v>91.31798361203343</v>
+        <v>91.3179836120334</v>
       </c>
       <c r="H30" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I30" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432213</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K30" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L30" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M30" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N30" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O30" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P30" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q30" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R30" t="n">
         <v>1817.643160879484</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>752.8268581914872</v>
+        <v>601.4610254965223</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8542950704032</v>
+        <v>429.4884623754383</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8542950704032</v>
+        <v>429.4884623754383</v>
       </c>
       <c r="E31" t="n">
-        <v>580.8542950704032</v>
+        <v>429.4884623754383</v>
       </c>
       <c r="F31" t="n">
-        <v>418.5627677653314</v>
+        <v>257.6266881499987</v>
       </c>
       <c r="G31" t="n">
-        <v>253.3324186729547</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="I31" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497137</v>
       </c>
       <c r="J31" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K31" t="n">
-        <v>521.8261615648511</v>
+        <v>246.6960581639044</v>
       </c>
       <c r="L31" t="n">
-        <v>649.7197290546716</v>
+        <v>750.9785192448899</v>
       </c>
       <c r="M31" t="n">
-        <v>1198.630515423952</v>
+        <v>1299.889305614171</v>
       </c>
       <c r="N31" t="n">
-        <v>1730.096669936239</v>
+        <v>1831.355460126457</v>
       </c>
       <c r="O31" t="n">
-        <v>1864.874391771335</v>
+        <v>2329.004093722541</v>
       </c>
       <c r="P31" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378487</v>
       </c>
       <c r="Q31" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248568</v>
       </c>
       <c r="S31" t="n">
-        <v>2487.544691879676</v>
+        <v>2336.178859184711</v>
       </c>
       <c r="T31" t="n">
-        <v>2248.591813999156</v>
+        <v>2097.225981304191</v>
       </c>
       <c r="U31" t="n">
-        <v>1968.463362987464</v>
+        <v>1817.097530292499</v>
       </c>
       <c r="V31" t="n">
-        <v>1686.751895595493</v>
+        <v>1535.386062900528</v>
       </c>
       <c r="W31" t="n">
-        <v>1411.899491768006</v>
+        <v>1260.533659073041</v>
       </c>
       <c r="X31" t="n">
-        <v>1169.335595213811</v>
+        <v>1017.969762518846</v>
       </c>
       <c r="Y31" t="n">
-        <v>942.9928269035529</v>
+        <v>791.6269942085879</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1251.517076079678</v>
+        <v>445.4221887229204</v>
       </c>
       <c r="C32" t="n">
-        <v>1152.225272170989</v>
+        <v>445.4221887229204</v>
       </c>
       <c r="D32" t="n">
-        <v>1152.225272170989</v>
+        <v>445.4221887229204</v>
       </c>
       <c r="E32" t="n">
-        <v>726.2483323188463</v>
+        <v>445.4221887229204</v>
       </c>
       <c r="F32" t="n">
-        <v>726.2483323188463</v>
+        <v>445.4221887229204</v>
       </c>
       <c r="G32" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H32" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I32" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K32" t="n">
-        <v>513.2289698376792</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L32" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M32" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O32" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P32" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q32" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R32" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S32" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T32" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U32" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="V32" t="n">
-        <v>2488.42270924857</v>
+        <v>2078.719171591466</v>
       </c>
       <c r="W32" t="n">
-        <v>2488.42270924857</v>
+        <v>1682.327821891813</v>
       </c>
       <c r="X32" t="n">
-        <v>2076.702710416317</v>
+        <v>1270.60782305956</v>
       </c>
       <c r="Y32" t="n">
-        <v>1671.365440371208</v>
+        <v>865.2705530144505</v>
       </c>
     </row>
     <row r="33">
@@ -6773,22 +6773,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H33" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I33" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J33" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K33" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L33" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M33" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N33" t="n">
         <v>1165.638568386506</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>619.1834258123132</v>
+        <v>753.7048755603801</v>
       </c>
       <c r="C34" t="n">
-        <v>447.2108626912292</v>
+        <v>581.732312439296</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8940898179999</v>
+        <v>581.732312439296</v>
       </c>
       <c r="E34" t="n">
-        <v>283.8940898179999</v>
+        <v>415.5241065921496</v>
       </c>
       <c r="F34" t="n">
-        <v>283.8940898179999</v>
+        <v>243.66233236671</v>
       </c>
       <c r="G34" t="n">
-        <v>118.6637407256232</v>
+        <v>243.66233236671</v>
       </c>
       <c r="H34" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I34" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J34" t="n">
-        <v>100.4757597880648</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K34" t="n">
-        <v>196.6218358026081</v>
+        <v>521.826161564851</v>
       </c>
       <c r="L34" t="n">
-        <v>700.9042968835936</v>
+        <v>684.8817401355639</v>
       </c>
       <c r="M34" t="n">
-        <v>1249.815083252875</v>
+        <v>1233.792526504845</v>
       </c>
       <c r="N34" t="n">
-        <v>1781.281237765161</v>
+        <v>1367.225758175251</v>
       </c>
       <c r="O34" t="n">
-        <v>2278.929871361245</v>
+        <v>1864.874391771335</v>
       </c>
       <c r="P34" t="n">
-        <v>2378.467090017192</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q34" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R34" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S34" t="n">
-        <v>2353.901259500502</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T34" t="n">
-        <v>2114.948381619982</v>
+        <v>2249.469831368049</v>
       </c>
       <c r="U34" t="n">
-        <v>1834.81993060829</v>
+        <v>1969.341380356357</v>
       </c>
       <c r="V34" t="n">
-        <v>1553.108463216319</v>
+        <v>1687.629912964386</v>
       </c>
       <c r="W34" t="n">
-        <v>1278.256059388832</v>
+        <v>1412.777509136899</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.692162834637</v>
+        <v>1170.213612582704</v>
       </c>
       <c r="Y34" t="n">
-        <v>809.3493945243788</v>
+        <v>943.8708442724458</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1040.610177973733</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="C35" t="n">
-        <v>1040.610177973733</v>
+        <v>1302.919963706712</v>
       </c>
       <c r="D35" t="n">
-        <v>617.3175571587328</v>
+        <v>1302.919963706712</v>
       </c>
       <c r="E35" t="n">
-        <v>617.3175571587328</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1979444598476</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G35" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H35" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I35" t="n">
         <v>102.0442972147729</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K35" t="n">
         <v>513.228969837679</v>
       </c>
       <c r="L35" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M35" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P35" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q35" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R35" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S35" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T35" t="n">
-        <v>2277.515811142625</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="U35" t="n">
-        <v>2277.515811142625</v>
+        <v>2178.036771025753</v>
       </c>
       <c r="V35" t="n">
-        <v>2277.515811142625</v>
+        <v>1820.547356152002</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.515811142625</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="X35" t="n">
-        <v>1865.795812310372</v>
+        <v>1424.156006452349</v>
       </c>
       <c r="Y35" t="n">
-        <v>1460.458542265263</v>
+        <v>1424.156006452349</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H36" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I36" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J36" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K36" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L36" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M36" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N36" t="n">
         <v>1165.638568386506</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.704875560381</v>
+        <v>1033.833326572073</v>
       </c>
       <c r="C37" t="n">
-        <v>581.7323124392969</v>
+        <v>861.8607634509885</v>
       </c>
       <c r="D37" t="n">
-        <v>581.7323124392969</v>
+        <v>698.5439905777592</v>
       </c>
       <c r="E37" t="n">
-        <v>581.7323124392969</v>
+        <v>532.3357847306128</v>
       </c>
       <c r="F37" t="n">
-        <v>409.8705382138573</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G37" t="n">
-        <v>244.6401891214806</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H37" t="n">
-        <v>109.9715111741491</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I37" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J37" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K37" t="n">
-        <v>521.8261615648511</v>
+        <v>246.6960581639049</v>
       </c>
       <c r="L37" t="n">
-        <v>1026.108622645836</v>
+        <v>750.9785192448903</v>
       </c>
       <c r="M37" t="n">
-        <v>1233.792526504845</v>
+        <v>1299.889305614171</v>
       </c>
       <c r="N37" t="n">
-        <v>1367.225758175251</v>
+        <v>1831.355460126458</v>
       </c>
       <c r="O37" t="n">
-        <v>1864.874391771335</v>
+        <v>2329.004093722541</v>
       </c>
       <c r="P37" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q37" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R37" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S37" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T37" t="n">
-        <v>2249.46983136805</v>
+        <v>2249.469831368049</v>
       </c>
       <c r="U37" t="n">
-        <v>1969.341380356358</v>
+        <v>2249.469831368049</v>
       </c>
       <c r="V37" t="n">
-        <v>1687.629912964386</v>
+        <v>1967.758363976078</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.777509136899</v>
+        <v>1692.905960148591</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.213612582705</v>
+        <v>1450.342063594396</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.8708442724467</v>
+        <v>1223.999295284138</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1561.792602874699</v>
+        <v>1011.853069782256</v>
       </c>
       <c r="C38" t="n">
-        <v>1134.891872887999</v>
+        <v>1011.853069782256</v>
       </c>
       <c r="D38" t="n">
-        <v>1134.891872887999</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="E38" t="n">
-        <v>708.914933035857</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F38" t="n">
-        <v>708.914933035857</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G38" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H38" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I38" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J38" t="n">
-        <v>263.3013860486622</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K38" t="n">
         <v>513.228969837679</v>
       </c>
       <c r="L38" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M38" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N38" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O38" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P38" t="n">
         <v>2175.730653154894</v>
       </c>
       <c r="Q38" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R38" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S38" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T38" t="n">
-        <v>2225.301688359272</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U38" t="n">
-        <v>1967.129872919809</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="V38" t="n">
-        <v>1967.129872919809</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="W38" t="n">
-        <v>1967.129872919809</v>
+        <v>1828.910338659618</v>
       </c>
       <c r="X38" t="n">
-        <v>1967.129872919809</v>
+        <v>1417.190339827366</v>
       </c>
       <c r="Y38" t="n">
-        <v>1561.792602874699</v>
+        <v>1011.853069782256</v>
       </c>
     </row>
     <row r="39">
@@ -7247,22 +7247,22 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H39" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I39" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947536</v>
       </c>
       <c r="J39" t="n">
-        <v>183.4593521567748</v>
+        <v>183.4593521567757</v>
       </c>
       <c r="K39" t="n">
-        <v>355.0869125144397</v>
+        <v>355.0869125144405</v>
       </c>
       <c r="L39" t="n">
-        <v>593.3887605094956</v>
+        <v>593.3887605094963</v>
       </c>
       <c r="M39" t="n">
-        <v>874.6212682256946</v>
+        <v>874.6212682256951</v>
       </c>
       <c r="N39" t="n">
         <v>1165.638568386506</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.922083832231</v>
+        <v>752.8268581914863</v>
       </c>
       <c r="C40" t="n">
-        <v>919.9495207111468</v>
+        <v>580.8542950704023</v>
       </c>
       <c r="D40" t="n">
-        <v>756.6327478379175</v>
+        <v>580.8542950704023</v>
       </c>
       <c r="E40" t="n">
-        <v>590.424541990771</v>
+        <v>455.7558640434395</v>
       </c>
       <c r="F40" t="n">
-        <v>418.5627677653314</v>
+        <v>283.8940898179999</v>
       </c>
       <c r="G40" t="n">
-        <v>253.3324186729547</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="H40" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I40" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J40" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K40" t="n">
-        <v>521.8261615648511</v>
+        <v>274.5435524508289</v>
       </c>
       <c r="L40" t="n">
-        <v>1026.108622645836</v>
+        <v>402.4371199406494</v>
       </c>
       <c r="M40" t="n">
-        <v>1575.019409015117</v>
+        <v>951.3479063099301</v>
       </c>
       <c r="N40" t="n">
-        <v>1708.452640685524</v>
+        <v>1482.814060822217</v>
       </c>
       <c r="O40" t="n">
-        <v>1864.874391771335</v>
+        <v>1980.4626944183</v>
       </c>
       <c r="P40" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q40" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S40" t="n">
-        <v>2335.300841815819</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T40" t="n">
-        <v>2096.347963935299</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.219512923607</v>
+        <v>1968.463362987463</v>
       </c>
       <c r="V40" t="n">
-        <v>1534.508045531635</v>
+        <v>1686.751895595492</v>
       </c>
       <c r="W40" t="n">
-        <v>1524.651949098491</v>
+        <v>1411.899491768005</v>
       </c>
       <c r="X40" t="n">
-        <v>1282.088052544296</v>
+        <v>1169.33559521381</v>
       </c>
       <c r="Y40" t="n">
-        <v>1282.088052544296</v>
+        <v>942.992826903552</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.968872474034</v>
+        <v>782.4383625342682</v>
       </c>
       <c r="C41" t="n">
-        <v>1619.968872474034</v>
+        <v>782.4383625342682</v>
       </c>
       <c r="D41" t="n">
-        <v>1577.349453981589</v>
+        <v>782.4383625342682</v>
       </c>
       <c r="E41" t="n">
-        <v>1151.372514129446</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F41" t="n">
-        <v>726.2483323188463</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G41" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H41" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I41" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J41" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K41" t="n">
-        <v>513.2289698376792</v>
+        <v>513.228969837679</v>
       </c>
       <c r="L41" t="n">
-        <v>829.2827739385805</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M41" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N41" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O41" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P41" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q41" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S41" t="n">
-        <v>2436.208586465217</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="T41" t="n">
-        <v>2436.208586465217</v>
+        <v>2277.515811142624</v>
       </c>
       <c r="U41" t="n">
-        <v>2436.208586465217</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="V41" t="n">
-        <v>2436.208586465217</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="W41" t="n">
-        <v>2039.817236765564</v>
+        <v>2019.343995703161</v>
       </c>
       <c r="X41" t="n">
-        <v>2039.817236765564</v>
+        <v>1607.623996870908</v>
       </c>
       <c r="Y41" t="n">
-        <v>2039.817236765564</v>
+        <v>1202.286726825798</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H42" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I42" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0655064016225</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K42" t="n">
-        <v>339.6930667592875</v>
+        <v>339.6930667592873</v>
       </c>
       <c r="L42" t="n">
-        <v>577.9949147543433</v>
+        <v>577.994914754343</v>
       </c>
       <c r="M42" t="n">
-        <v>859.2274224705423</v>
+        <v>859.2274224705418</v>
       </c>
       <c r="N42" t="n">
-        <v>1150.244722631354</v>
+        <v>1150.244722631353</v>
       </c>
       <c r="O42" t="n">
         <v>1412.857980714236</v>
       </c>
       <c r="P42" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q42" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R42" t="n">
         <v>1817.643160879484</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.922083832231</v>
+        <v>752.8268581914863</v>
       </c>
       <c r="C43" t="n">
-        <v>919.9495207111468</v>
+        <v>580.8542950704023</v>
       </c>
       <c r="D43" t="n">
-        <v>756.6327478379175</v>
+        <v>455.7558640434395</v>
       </c>
       <c r="E43" t="n">
-        <v>590.424541990771</v>
+        <v>455.7558640434395</v>
       </c>
       <c r="F43" t="n">
-        <v>418.5627677653314</v>
+        <v>283.8940898179999</v>
       </c>
       <c r="G43" t="n">
-        <v>253.3324186729547</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="H43" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I43" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J43" t="n">
-        <v>178.3974764362857</v>
+        <v>178.3974764362856</v>
       </c>
       <c r="K43" t="n">
-        <v>521.8261615648511</v>
+        <v>274.5435524508289</v>
       </c>
       <c r="L43" t="n">
-        <v>1026.108622645836</v>
+        <v>402.4371199406494</v>
       </c>
       <c r="M43" t="n">
-        <v>1233.792526504845</v>
+        <v>951.3479063099301</v>
       </c>
       <c r="N43" t="n">
-        <v>1367.225758175251</v>
+        <v>1482.814060822217</v>
       </c>
       <c r="O43" t="n">
-        <v>1864.874391771335</v>
+        <v>1980.4626944183</v>
       </c>
       <c r="P43" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S43" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.591813999156</v>
+        <v>2248.591813999155</v>
       </c>
       <c r="U43" t="n">
-        <v>2248.591813999156</v>
+        <v>1968.463362987463</v>
       </c>
       <c r="V43" t="n">
-        <v>1966.880346607185</v>
+        <v>1686.751895595492</v>
       </c>
       <c r="W43" t="n">
-        <v>1692.027942779698</v>
+        <v>1411.899491768005</v>
       </c>
       <c r="X43" t="n">
-        <v>1449.464046225503</v>
+        <v>1169.33559521381</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.088052544296</v>
+        <v>942.992826903552</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1176.222856257147</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="C44" t="n">
-        <v>749.3221262704474</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="D44" t="n">
-        <v>749.3221262704474</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="E44" t="n">
-        <v>749.3221262704474</v>
+        <v>876.9430238545699</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1979444598476</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G44" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="H44" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I44" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J44" t="n">
-        <v>263.3013860486626</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K44" t="n">
         <v>513.228969837679</v>
       </c>
       <c r="L44" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385797</v>
       </c>
       <c r="M44" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N44" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O44" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154893</v>
       </c>
       <c r="Q44" t="n">
-        <v>2382.200022306146</v>
+        <v>2382.200022306145</v>
       </c>
       <c r="R44" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S44" t="n">
-        <v>2436.208586465218</v>
+        <v>2436.208586465216</v>
       </c>
       <c r="T44" t="n">
-        <v>2436.208586465218</v>
+        <v>2225.301688359271</v>
       </c>
       <c r="U44" t="n">
-        <v>2436.208586465218</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V44" t="n">
-        <v>2389.671474834163</v>
+        <v>1609.640458046057</v>
       </c>
       <c r="W44" t="n">
-        <v>1993.280125134509</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="X44" t="n">
-        <v>1581.560126302257</v>
+        <v>1213.249108346404</v>
       </c>
       <c r="Y44" t="n">
-        <v>1176.222856257147</v>
+        <v>1213.249108346404</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="I45" t="n">
-        <v>75.07978914432219</v>
+        <v>75.07978914432215</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0655064016225</v>
+        <v>168.0655064016224</v>
       </c>
       <c r="K45" t="n">
-        <v>339.6930667592875</v>
+        <v>339.6930667592873</v>
       </c>
       <c r="L45" t="n">
-        <v>577.9949147543434</v>
+        <v>577.994914754343</v>
       </c>
       <c r="M45" t="n">
-        <v>859.2274224705425</v>
+        <v>859.2274224705418</v>
       </c>
       <c r="N45" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631353</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P45" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541191</v>
       </c>
       <c r="R45" t="n">
         <v>1817.643160879484</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.2944755196015</v>
+        <v>600.583008127629</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3219123985175</v>
+        <v>428.610445006545</v>
       </c>
       <c r="D46" t="n">
-        <v>547.0051395252882</v>
+        <v>265.2936721333157</v>
       </c>
       <c r="E46" t="n">
-        <v>547.0051395252882</v>
+        <v>265.2936721333157</v>
       </c>
       <c r="F46" t="n">
-        <v>375.1433652998486</v>
+        <v>265.2936721333157</v>
       </c>
       <c r="G46" t="n">
-        <v>209.9130162074719</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H46" t="n">
-        <v>75.24433826014038</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I46" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497138</v>
       </c>
       <c r="J46" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K46" t="n">
-        <v>521.8261615648511</v>
+        <v>196.621835802608</v>
       </c>
       <c r="L46" t="n">
-        <v>1026.108622645837</v>
+        <v>700.9042968835935</v>
       </c>
       <c r="M46" t="n">
-        <v>1575.019409015118</v>
+        <v>836.2796027900524</v>
       </c>
       <c r="N46" t="n">
-        <v>2057.684287051763</v>
+        <v>1367.745757302339</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.630596344643</v>
+        <v>1865.394390898423</v>
       </c>
       <c r="P46" t="n">
-        <v>2277.16781500059</v>
+        <v>2277.687814127677</v>
       </c>
       <c r="Q46" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.544691879677</v>
+        <v>2487.544691879675</v>
       </c>
       <c r="S46" t="n">
-        <v>2335.300841815819</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.3479639353</v>
+        <v>2096.347963935298</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.219512923607</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V46" t="n">
-        <v>1816.219512923607</v>
+        <v>1534.508045531634</v>
       </c>
       <c r="W46" t="n">
-        <v>1541.36710909612</v>
+        <v>1259.655641704147</v>
       </c>
       <c r="X46" t="n">
-        <v>1298.803212541925</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y46" t="n">
-        <v>1072.460444231667</v>
+        <v>790.7489768396946</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>137.5758459478529</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.8960973939094</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.0675224703016</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479648</v>
+        <v>45.34488222711981</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5866010684577674</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8815976201643</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>70.37539003541897</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.0675224703015</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>50.95854331539968</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479648</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.79595194094735</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>7.360890261672765</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541828</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9324,10 +9324,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>360.0219516362445</v>
+        <v>39.07953346156646</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017979</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.74051767574625</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>298.504485226012</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.5903457215975</v>
+        <v>66.92392750596252</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>126.5047566361195</v>
+        <v>49.89324888542873</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479646</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779356</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017979</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>15.54933914661936</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9801,13 +9801,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.51718290999241</v>
+        <v>73.03898783085683</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>50.58002258716806</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>51.17633202205491</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>15.54933914661942</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>50.58002258716806</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10284,13 +10284,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>14.98122479011704</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>15.54933914661844</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>35.51718290999236</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.58002258716853</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J36" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>50.58002258716849</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>73.03898783085816</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.5493391466194</v>
       </c>
       <c r="J39" t="n">
-        <v>15.54933914661845</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>36.84388059892029</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>199.1594968952947</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>15.54933914661936</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>73.03898783085816</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>199.1594968952947</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>15.54933914661791</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.54933914661953</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7592387537768</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>152.3772709604149</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>365.6523266838986</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>65.47080893000148</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.6817263166283</v>
       </c>
       <c r="D13" t="n">
-        <v>30.16993893518517</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>290.0600518195531</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
@@ -23554,13 +23554,13 @@
         <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>241.3260037862403</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>183.3420743102056</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>23.39894659184944</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>370.3805883426634</v>
       </c>
       <c r="E17" t="n">
-        <v>340.2734165620865</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>70.59511247443231</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.6245733088307</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>354.1954309209793</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>136.5572488862598</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5.104904417117837</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>68.59650395589588</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>33.17707985801349</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>195.3189918644403</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S25" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T25" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>98.27168708741728</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>164.6918797059479</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>247.9211391926115</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.6851953721275</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.69198155551911</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>196.2432554623001</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24612,13 +24612,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S28" t="n">
         <v>150.7214115632189</v>
       </c>
       <c r="T28" t="n">
-        <v>0.145755917270975</v>
+        <v>36.96692123259925</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>128.0014771645026</v>
+        <v>126.0051806011059</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>208.7978291248855</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>9.474544451164121</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>91.12038514393409</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>68.2063336752453</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S31" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>324.332836817231</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.332686787839179</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.7978291248855</v>
@@ -24976,10 +24976,10 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3219911678582</v>
+        <v>9.573385443182275</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S34" t="n">
-        <v>17.54517631263171</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>302.6080403686523</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>130.6845234205974</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>57.50786968755662</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>8.605307255959339</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952047111</v>
       </c>
       <c r="S37" t="n">
         <v>150.7214115632189</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>285.4987491384406</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>17.16006529015949</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>40.69867707198183</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.3463443203995</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>376.8664702993289</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>94.40384516822593</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.69198155551913</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>37.83615842780385</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.37710688276059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>88.77414680670506</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>307.8427802102688</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>151.7364046756956</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>42.985208440828</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>412269.9982014931</v>
+        <v>412269.9982014932</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>412269.998201493</v>
+        <v>412269.9982014931</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>500842.5308023814</v>
+        <v>500842.5308023812</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500842.5308023814</v>
+        <v>500842.5308023812</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500842.5308023814</v>
+        <v>500842.5308023812</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500842.5308023814</v>
+        <v>500842.5308023813</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500842.5308023814</v>
+        <v>500842.5308023813</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500842.5308023814</v>
+        <v>500842.5308023813</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500842.5308023814</v>
+        <v>500842.5308023813</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500842.5308023815</v>
+        <v>500842.5308023813</v>
       </c>
     </row>
   </sheetData>
@@ -26322,31 +26322,31 @@
         <v>17671.96318070307</v>
       </c>
       <c r="E2" t="n">
-        <v>138392.3543887654</v>
+        <v>138392.3543887653</v>
       </c>
       <c r="F2" t="n">
         <v>138392.3543887654</v>
       </c>
       <c r="G2" t="n">
-        <v>138392.3543887652</v>
+        <v>138392.3543887654</v>
       </c>
       <c r="H2" t="n">
-        <v>138392.3543887653</v>
+        <v>138392.3543887654</v>
       </c>
       <c r="I2" t="n">
-        <v>169921.8628209758</v>
+        <v>169921.8628209757</v>
       </c>
       <c r="J2" t="n">
-        <v>169921.8628209758</v>
+        <v>169921.8628209757</v>
       </c>
       <c r="K2" t="n">
         <v>169921.8628209758</v>
       </c>
       <c r="L2" t="n">
-        <v>169921.8628209759</v>
+        <v>169921.8628209758</v>
       </c>
       <c r="M2" t="n">
-        <v>169921.8628209758</v>
+        <v>169921.8628209757</v>
       </c>
       <c r="N2" t="n">
         <v>169921.8628209757</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481053.6498424917</v>
+        <v>481053.6498424916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145239.9140696165</v>
+        <v>145239.9140696161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>113002.0711424958</v>
+        <v>113002.0711424959</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>9817.757322612819</v>
       </c>
       <c r="E4" t="n">
-        <v>12863.07495534992</v>
+        <v>12863.07495534993</v>
       </c>
       <c r="F4" t="n">
         <v>12863.07495534993</v>
@@ -26435,7 +26435,7 @@
         <v>12863.07495534992</v>
       </c>
       <c r="H4" t="n">
-        <v>12863.07495534991</v>
+        <v>12863.07495534992</v>
       </c>
       <c r="I4" t="n">
         <v>10453.51669590856</v>
@@ -26444,22 +26444,22 @@
         <v>10453.51669590856</v>
       </c>
       <c r="K4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="L4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="M4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="N4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="O4" t="n">
-        <v>10453.51669590856</v>
+        <v>10453.51669590857</v>
       </c>
       <c r="P4" t="n">
-        <v>10453.51669590855</v>
+        <v>10453.51669590857</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="J5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="K5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576626</v>
       </c>
       <c r="L5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="M5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="N5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576627</v>
       </c>
       <c r="P5" t="n">
-        <v>50110.8260057663</v>
+        <v>50110.82600576627</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>-392473.6712221177</v>
+        <v>-393160.9314788748</v>
       </c>
       <c r="F6" t="n">
-        <v>88579.97862037391</v>
+        <v>87892.71836361688</v>
       </c>
       <c r="G6" t="n">
-        <v>88579.97862037377</v>
+        <v>87892.71836361689</v>
       </c>
       <c r="H6" t="n">
-        <v>88579.97862037382</v>
+        <v>87892.71836361695</v>
       </c>
       <c r="I6" t="n">
-        <v>-35882.39395031556</v>
+        <v>-36394.49027133777</v>
       </c>
       <c r="J6" t="n">
-        <v>109357.520119301</v>
+        <v>108845.4237982784</v>
       </c>
       <c r="K6" t="n">
-        <v>109357.5201193009</v>
+        <v>108845.4237982785</v>
       </c>
       <c r="L6" t="n">
-        <v>109357.520119301</v>
+        <v>108845.4237982785</v>
       </c>
       <c r="M6" t="n">
-        <v>-3644.551023194857</v>
+        <v>-4156.647344217454</v>
       </c>
       <c r="N6" t="n">
-        <v>109357.5201193009</v>
+        <v>108845.4237982784</v>
       </c>
       <c r="O6" t="n">
-        <v>109357.5201193009</v>
+        <v>108845.4237982783</v>
       </c>
       <c r="P6" t="n">
-        <v>109357.520119301</v>
+        <v>108845.4237982785</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
         <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="J3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="K3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="L3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="M3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="N3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="O3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517443</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517446</v>
+        <v>563.6147167517443</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.105677312142</v>
       </c>
       <c r="J4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121421</v>
       </c>
       <c r="K4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121421</v>
       </c>
       <c r="L4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="M4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="N4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121422</v>
       </c>
       <c r="P4" t="n">
-        <v>622.1056773121426</v>
+        <v>622.1056773121422</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133.3663409047985</v>
+        <v>133.3663409047982</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.6536013322391</v>
+        <v>168.6536013322385</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32007,7 +32007,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M14" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
         <v>308.6242947670762</v>
@@ -32016,7 +32016,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7818464210729</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
         <v>8.937801166179012</v>
@@ -32077,7 +32077,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32092,22 +32092,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P15" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
         <v>0.06088420412928484</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
         <v>90.14056136596669</v>
@@ -32174,7 +32174,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
         <v>64.96750475288884</v>
@@ -32189,7 +32189,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32244,16 +32244,16 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M17" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7818464210729</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,31 +32323,31 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P18" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32481,16 +32481,16 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
         <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32560,31 +32560,31 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
         <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32648,10 +32648,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
         <v>34.88538470391794</v>
@@ -32660,10 +32660,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H23" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I23" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J23" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K23" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L23" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M23" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N23" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O23" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P23" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q23" t="n">
         <v>244.6795929391957</v>
@@ -32736,10 +32736,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S23" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T23" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U23" t="n">
         <v>0.1812630244829729</v>
@@ -32785,43 +32785,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I24" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J24" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K24" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L24" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M24" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N24" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P24" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R24" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S24" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T24" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H25" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I25" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J25" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K25" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L25" t="n">
         <v>151.1041816025906</v>
@@ -32879,28 +32879,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N25" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O25" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P25" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R25" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S25" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T25" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H26" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I26" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J26" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K26" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L26" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M26" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N26" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O26" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P26" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q26" t="n">
         <v>244.6795929391957</v>
@@ -32973,10 +32973,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S26" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T26" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U26" t="n">
         <v>0.1812630244829729</v>
@@ -33022,43 +33022,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I27" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J27" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K27" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L27" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M27" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N27" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P27" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R27" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S27" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T27" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H28" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I28" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J28" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K28" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L28" t="n">
         <v>151.1041816025906</v>
@@ -33116,28 +33116,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N28" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O28" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P28" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R28" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S28" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T28" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H29" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I29" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J29" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K29" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L29" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M29" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N29" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O29" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P29" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q29" t="n">
         <v>244.6795929391957</v>
@@ -33210,10 +33210,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S29" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T29" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U29" t="n">
         <v>0.1812630244829729</v>
@@ -33259,43 +33259,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I30" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J30" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K30" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L30" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M30" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N30" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P30" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q30" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R30" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S30" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T30" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H31" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I31" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J31" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K31" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L31" t="n">
         <v>151.1041816025906</v>
@@ -33353,28 +33353,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N31" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O31" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P31" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R31" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S31" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T31" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H32" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I32" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J32" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K32" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L32" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M32" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N32" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O32" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P32" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q32" t="n">
         <v>244.6795929391957</v>
@@ -33447,10 +33447,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S32" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T32" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U32" t="n">
         <v>0.1812630244829729</v>
@@ -33496,43 +33496,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I33" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J33" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K33" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L33" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M33" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N33" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P33" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R33" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S33" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T33" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,16 +33572,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H34" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I34" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J34" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K34" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L34" t="n">
         <v>151.1041816025906</v>
@@ -33590,28 +33590,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N34" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O34" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R34" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S34" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T34" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H35" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I35" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J35" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K35" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L35" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M35" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N35" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O35" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P35" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q35" t="n">
         <v>244.6795929391957</v>
@@ -33684,10 +33684,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S35" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T35" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U35" t="n">
         <v>0.1812630244829729</v>
@@ -33733,43 +33733,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I36" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J36" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K36" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L36" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M36" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N36" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P36" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R36" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S36" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T36" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H37" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I37" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J37" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K37" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L37" t="n">
         <v>151.1041816025906</v>
@@ -33827,28 +33827,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N37" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O37" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P37" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R37" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S37" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T37" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H38" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I38" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J38" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K38" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L38" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M38" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N38" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O38" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P38" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q38" t="n">
         <v>244.6795929391957</v>
@@ -33921,10 +33921,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S38" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T38" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U38" t="n">
         <v>0.1812630244829729</v>
@@ -33970,43 +33970,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I39" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J39" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K39" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L39" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M39" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N39" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P39" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q39" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R39" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S39" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T39" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H40" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I40" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J40" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K40" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L40" t="n">
         <v>151.1041816025906</v>
@@ -34064,28 +34064,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N40" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O40" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P40" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R40" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S40" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T40" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H41" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I41" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J41" t="n">
         <v>192.3059078026467</v>
       </c>
       <c r="K41" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L41" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M41" t="n">
-        <v>397.8525130968231</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N41" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O41" t="n">
-        <v>381.7597552044442</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P41" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q41" t="n">
         <v>244.6795929391957</v>
@@ -34158,10 +34158,10 @@
         <v>142.328293270982</v>
       </c>
       <c r="S41" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T41" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U41" t="n">
         <v>0.1812630244829729</v>
@@ -34207,43 +34207,43 @@
         <v>11.70829817252209</v>
       </c>
       <c r="I42" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J42" t="n">
         <v>114.5360812598993</v>
       </c>
       <c r="K42" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L42" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M42" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N42" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P42" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q42" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R42" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S42" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T42" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H43" t="n">
-        <v>9.036314639068959</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I43" t="n">
-        <v>30.56454890188149</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J43" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K43" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L43" t="n">
         <v>151.1041816025906</v>
@@ -34301,28 +34301,28 @@
         <v>159.3181731303332</v>
       </c>
       <c r="N43" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O43" t="n">
         <v>143.6570756730512</v>
       </c>
       <c r="P43" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R43" t="n">
-        <v>45.69898998449389</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S43" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T43" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.265787806037162</v>
+        <v>2.265787806037161</v>
       </c>
       <c r="H44" t="n">
-        <v>23.20449936857809</v>
+        <v>23.20449936857808</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224779</v>
+        <v>87.35178439224774</v>
       </c>
       <c r="J44" t="n">
-        <v>192.3059078026468</v>
+        <v>192.3059078026467</v>
       </c>
       <c r="K44" t="n">
-        <v>288.2167056321999</v>
+        <v>288.2167056321998</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012099</v>
+        <v>357.5583092012096</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8525130968232</v>
+        <v>397.852513096823</v>
       </c>
       <c r="N44" t="n">
-        <v>404.2901827007263</v>
+        <v>404.2901827007261</v>
       </c>
       <c r="O44" t="n">
-        <v>381.7597552044443</v>
+        <v>381.759755204444</v>
       </c>
       <c r="P44" t="n">
-        <v>325.8231187429018</v>
+        <v>325.8231187429016</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6795929391958</v>
+        <v>244.6795929391957</v>
       </c>
       <c r="R44" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007189</v>
+        <v>51.63163963007186</v>
       </c>
       <c r="T44" t="n">
-        <v>9.918486120927684</v>
+        <v>9.918486120927678</v>
       </c>
       <c r="U44" t="n">
-        <v>0.181263024482973</v>
+        <v>0.1812630244829729</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.212303353013187</v>
+        <v>1.212303353013186</v>
       </c>
       <c r="H45" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944524</v>
+        <v>41.73939175944522</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5360812598994</v>
+        <v>114.5360812598993</v>
       </c>
       <c r="K45" t="n">
-        <v>195.7604059117828</v>
+        <v>195.7604059117827</v>
       </c>
       <c r="L45" t="n">
-        <v>263.2240240829728</v>
+        <v>263.2240240829727</v>
       </c>
       <c r="M45" t="n">
-        <v>307.1700206297008</v>
+        <v>307.1700206297006</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2998970628463</v>
+        <v>315.2998970628461</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776593</v>
+        <v>288.4378069776591</v>
       </c>
       <c r="P45" t="n">
-        <v>231.4967692258251</v>
+        <v>231.4967692258249</v>
       </c>
       <c r="Q45" t="n">
-        <v>154.7494595881394</v>
+        <v>154.7494595881393</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620472</v>
+        <v>75.26915028620466</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022299</v>
+        <v>22.51800307022297</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838237</v>
+        <v>4.886433251838234</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034125</v>
+        <v>0.07975679954034121</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.03631463906896</v>
+        <v>9.036314639068955</v>
       </c>
       <c r="I46" t="n">
-        <v>30.5645489018815</v>
+        <v>30.56454890188148</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308717</v>
+        <v>71.85625659308712</v>
       </c>
       <c r="K46" t="n">
-        <v>118.0819029522507</v>
+        <v>118.0819029522506</v>
       </c>
       <c r="L46" t="n">
-        <v>151.1041816025907</v>
+        <v>151.1041816025906</v>
       </c>
       <c r="M46" t="n">
-        <v>159.3181731303333</v>
+        <v>159.3181731303332</v>
       </c>
       <c r="N46" t="n">
-        <v>155.52994306692</v>
+        <v>155.5299430669199</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6570756730513</v>
+        <v>143.6570756730512</v>
       </c>
       <c r="P46" t="n">
-        <v>122.9234457650034</v>
+        <v>122.9234457650033</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951344</v>
+        <v>85.10582222951338</v>
       </c>
       <c r="R46" t="n">
-        <v>45.6989899844939</v>
+        <v>45.69898998449387</v>
       </c>
       <c r="S46" t="n">
-        <v>17.7122854428376</v>
+        <v>17.71228544283759</v>
       </c>
       <c r="T46" t="n">
-        <v>4.342605194644588</v>
+        <v>4.342605194644586</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312248</v>
+        <v>0.05543751312312244</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>204.3985076911145</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471201</v>
+        <v>355.3191790410295</v>
       </c>
       <c r="M12" t="n">
         <v>211.3885843242576</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>453.4520759799034</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R12" t="n">
         <v>33.78553351613294</v>
@@ -35573,19 +35573,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799034</v>
+        <v>144.3886676590584</v>
       </c>
       <c r="N13" t="n">
-        <v>98.56509207042537</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P13" t="n">
-        <v>71.4556647890261</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
         <v>193.2504645920423</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K14" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
         <v>234.6383920255356</v>
@@ -35658,19 +35658,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q14" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>180.7042593634259</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>127.0390157285252</v>
+        <v>197.4144057639442</v>
       </c>
       <c r="L15" t="n">
         <v>178.4230816471201</v>
@@ -35737,7 +35737,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
         <v>197.0138050378653</v>
@@ -35746,10 +35746,10 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>453.4520759799034</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R15" t="n">
-        <v>33.78553351613293</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365869</v>
+        <v>144.3886676590584</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
-        <v>71.45566478902607</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.14389392905125</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K17" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q17" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>361.8756844398183</v>
+        <v>74.18355200493441</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35974,16 +35974,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450201</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,25 +36044,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>453.4520759799032</v>
+        <v>132.5096578052252</v>
       </c>
       <c r="M19" t="n">
-        <v>99.04378543193857</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N19" t="n">
-        <v>97.97849100196757</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P19" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.0884596638501</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36211,19 +36211,19 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538915</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="Q21" t="n">
-        <v>295.9748992311993</v>
+        <v>162.3084810155644</v>
       </c>
       <c r="R21" t="n">
-        <v>33.78553351613293</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.2163853105522</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>219.9348809797782</v>
+        <v>143.3233732290875</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799032</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799032</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799032</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>71.45566478902607</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J23" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K23" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L23" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M23" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N23" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O23" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P23" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q23" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R23" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J24" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K24" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L24" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M24" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N24" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O24" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P24" t="n">
-        <v>209.7259280209964</v>
+        <v>225.2752671676157</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R24" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K25" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L25" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M25" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N25" t="n">
-        <v>170.298225001312</v>
+        <v>207.8200299221764</v>
       </c>
       <c r="O25" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P25" t="n">
         <v>416.458003261873</v>
       </c>
       <c r="Q25" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J26" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K26" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L26" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M26" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N26" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O26" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P26" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R26" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606463</v>
       </c>
       <c r="J27" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K27" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L27" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M27" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N27" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O27" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P27" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R27" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8976617460256</v>
+        <v>147.6972710867067</v>
       </c>
       <c r="L28" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M28" t="n">
-        <v>187.9190652609023</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N28" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O28" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P28" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J29" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K29" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L29" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M29" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N29" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O29" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P29" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q29" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R29" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J30" t="n">
-        <v>93.924966926566</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K30" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L30" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M30" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N30" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O30" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P30" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R30" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8976617460256</v>
+        <v>147.6972710867067</v>
       </c>
       <c r="L31" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M31" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N31" t="n">
-        <v>536.8344995073602</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O31" t="n">
-        <v>136.1391129647438</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P31" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J32" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K32" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L32" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M32" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N32" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O32" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P32" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R32" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J33" t="n">
-        <v>109.4743060731844</v>
+        <v>109.4743060731854</v>
       </c>
       <c r="K33" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L33" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M33" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N33" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O33" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P33" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R33" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.21950060918529</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K34" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L34" t="n">
-        <v>509.3762233141268</v>
+        <v>164.7026046168817</v>
       </c>
       <c r="M34" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N34" t="n">
-        <v>536.8344995073602</v>
+        <v>134.7810420913195</v>
       </c>
       <c r="O34" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P34" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.066282051897</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J35" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K35" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L35" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M35" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N35" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O35" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P35" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q35" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R35" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J36" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K36" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L36" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M36" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N36" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O36" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P36" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R36" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K37" t="n">
-        <v>346.8976617460256</v>
+        <v>147.6972710867071</v>
       </c>
       <c r="L37" t="n">
-        <v>509.3762233141268</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M37" t="n">
-        <v>209.7817210697056</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N37" t="n">
-        <v>134.7810420913196</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O37" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P37" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070168</v>
       </c>
       <c r="Q37" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472843</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J38" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K38" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L38" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M38" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N38" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O38" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P38" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q38" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R38" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606462</v>
       </c>
       <c r="J39" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K39" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L39" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M39" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N39" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O39" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P39" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R39" t="n">
-        <v>51.59623089206056</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L40" t="n">
-        <v>509.3762233141268</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M40" t="n">
-        <v>554.4553397669503</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N40" t="n">
-        <v>134.7810420913196</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O40" t="n">
-        <v>158.0017687735471</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P40" t="n">
-        <v>416.458003261873</v>
+        <v>299.7021420023115</v>
       </c>
       <c r="Q40" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J41" t="n">
         <v>162.8859483170602</v>
       </c>
       <c r="K41" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L41" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M41" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N41" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O41" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q41" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R41" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J42" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K42" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L42" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M42" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N42" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O42" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P42" t="n">
-        <v>209.7259280209964</v>
+        <v>225.2752671676157</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R42" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206052</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9283053043579</v>
+        <v>129.9283053043578</v>
       </c>
       <c r="K43" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L43" t="n">
-        <v>509.3762233141268</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M43" t="n">
-        <v>209.7817210697056</v>
+        <v>554.4553397669501</v>
       </c>
       <c r="N43" t="n">
-        <v>134.7810420913196</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O43" t="n">
-        <v>502.6753874707917</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P43" t="n">
-        <v>416.458003261873</v>
+        <v>299.7021420023115</v>
       </c>
       <c r="Q43" t="n">
-        <v>213.3887820686669</v>
+        <v>213.3887820686668</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828429</v>
+        <v>52.80388184828423</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8859483170603</v>
+        <v>162.8859483170602</v>
       </c>
       <c r="K44" t="n">
-        <v>252.4521048373906</v>
+        <v>252.4521048373904</v>
       </c>
       <c r="L44" t="n">
-        <v>319.2462667685869</v>
+        <v>319.2462667685867</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973914</v>
+        <v>360.4212501973911</v>
       </c>
       <c r="N44" t="n">
-        <v>367.0105598662803</v>
+        <v>367.0105598662801</v>
       </c>
       <c r="O44" t="n">
-        <v>344.3687958484202</v>
+        <v>344.3687958484199</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2477569326705</v>
+        <v>288.2477569326703</v>
       </c>
       <c r="Q44" t="n">
-        <v>208.5549183345977</v>
+        <v>208.5549183345976</v>
       </c>
       <c r="R44" t="n">
-        <v>107.2956433761856</v>
+        <v>107.2956433761855</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.56700500944524</v>
+        <v>25.56700500944522</v>
       </c>
       <c r="J45" t="n">
-        <v>93.92496692656603</v>
+        <v>93.92496692656596</v>
       </c>
       <c r="K45" t="n">
-        <v>173.3611720784495</v>
+        <v>173.3611720784494</v>
       </c>
       <c r="L45" t="n">
-        <v>240.7089373687433</v>
+        <v>240.7089373687431</v>
       </c>
       <c r="M45" t="n">
-        <v>284.0732401173728</v>
+        <v>284.0732401173726</v>
       </c>
       <c r="N45" t="n">
-        <v>309.5062079959225</v>
+        <v>293.9568688493044</v>
       </c>
       <c r="O45" t="n">
-        <v>265.2659172554371</v>
+        <v>265.2659172554369</v>
       </c>
       <c r="P45" t="n">
-        <v>209.7259280209964</v>
+        <v>209.7259280209963</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.0024212991609</v>
+        <v>132.0024212991608</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206058</v>
+        <v>67.14557003868005</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918526</v>
       </c>
       <c r="K46" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953865</v>
       </c>
       <c r="L46" t="n">
-        <v>509.3762233141268</v>
+        <v>509.3762233141267</v>
       </c>
       <c r="M46" t="n">
-        <v>554.4553397669503</v>
+        <v>136.7427332388474</v>
       </c>
       <c r="N46" t="n">
-        <v>487.5402808450964</v>
+        <v>536.8344995073601</v>
       </c>
       <c r="O46" t="n">
-        <v>121.1578881746268</v>
+        <v>502.6753874707916</v>
       </c>
       <c r="P46" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q46" t="n">
-        <v>213.3887820686669</v>
+        <v>212.8635304251434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
